--- a/public/downloads/Template Files/Product Sales Report Result.xlsx
+++ b/public/downloads/Template Files/Product Sales Report Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30391D02-33AA-4B0F-93A2-F35B2C017B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DAC652-EA5A-4AC6-A0FC-C8307343D7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Sales Report Result" sheetId="1" r:id="rId1"/>
@@ -611,11 +611,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -642,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2161,35 +2160,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
@@ -2218,28 +2218,28 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>'Raw Data'!$G$2</f>
         <v>Asus Screen</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <f>'Raw Data'!$H$2</f>
         <v>Invoice</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>'Raw Data'!$V$2</f>
         <v>3505</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>'Raw Data'!$C$2</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <f>'Raw Data'!$K$2</f>
         <v>Test 1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>'Raw Data'!$L$2</f>
         <v>1</v>
       </c>
@@ -2256,11 +2256,11 @@
         <v>1818.18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>SUBTOTAL(9,F2:F2)</f>
         <v>1</v>
       </c>
@@ -2277,28 +2277,28 @@
         <v>1818.18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>'Raw Data'!$G$3</f>
         <v>Black Handbag</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f>'Raw Data'!$H$3</f>
         <v>Invoice</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>'Raw Data'!$V$3</f>
         <v>3474</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f>'Raw Data'!$C$3</f>
         <v>2023-02-22 00:00:00</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <f>'Raw Data'!$K$3</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>'Raw Data'!$L$3</f>
         <v>1</v>
       </c>
@@ -2315,11 +2315,11 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>SUBTOTAL(9,F4:F4)</f>
         <v>1</v>
       </c>
@@ -2336,28 +2336,28 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>'Raw Data'!$G$4</f>
         <v>Blue Paint</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f>'Raw Data'!$H$4</f>
         <v>Sales Order</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>'Raw Data'!$V$4</f>
         <v>3504</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f>'Raw Data'!$C$4</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <f>'Raw Data'!$K$4</f>
         <v>ABC^Repair No 37</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>'Raw Data'!$L$4</f>
         <v>1</v>
       </c>
@@ -2374,28 +2374,28 @@
         <v>109.09</v>
       </c>
     </row>
-    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>'Raw Data'!$G$5</f>
         <v>Blue Paint</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f>'Raw Data'!$H$5</f>
         <v>Invoice</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>'Raw Data'!$V$5</f>
         <v>3506</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f>'Raw Data'!$C$5</f>
         <v>2023-03-07 00:00:00</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <f>'Raw Data'!$K$5</f>
         <v>ABC company^Repair No 45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>'Raw Data'!$L$5</f>
         <v>1</v>
       </c>
@@ -2412,11 +2412,11 @@
         <v>109.035455</v>
       </c>
     </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>SUBTOTAL(9,F6:F7)</f>
         <v>2</v>
       </c>
@@ -2433,28 +2433,28 @@
         <v>218.12545499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <f>'Raw Data'!$G$6</f>
         <v>Blue Pen 3 (Yellow | Grey)</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f>'Raw Data'!$H$6</f>
         <v>Invoice</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f>'Raw Data'!$V$6</f>
         <v>3505</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f>'Raw Data'!$C$6</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="1" t="str">
         <f>'Raw Data'!$K$6</f>
         <v>Test 1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>'Raw Data'!$L$6</f>
         <v>1</v>
       </c>
@@ -2471,11 +2471,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f>SUBTOTAL(9,F9:F9)</f>
         <v>1</v>
       </c>
@@ -2492,28 +2492,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="11" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <f>'Raw Data'!$G$7</f>
         <v>Finished Product</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f>'Raw Data'!$H$7</f>
         <v>Invoice</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>'Raw Data'!$V$7</f>
         <v>3429</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f>'Raw Data'!$C$7</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="1" t="str">
         <f>'Raw Data'!$K$7</f>
         <v>Metrc</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>'Raw Data'!$L$7</f>
         <v>1</v>
       </c>
@@ -2530,11 +2530,11 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f>SUBTOTAL(9,F11:F11)</f>
         <v>1</v>
       </c>
@@ -2551,28 +2551,28 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
         <f>'Raw Data'!$G$8</f>
         <v>Labour</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <f>'Raw Data'!$H$8</f>
         <v>Invoice</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>'Raw Data'!$V$8</f>
         <v>3501</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="1" t="str">
         <f>'Raw Data'!$C$8</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="1" t="str">
         <f>'Raw Data'!$K$8</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>'Raw Data'!$L$8</f>
         <v>2</v>
       </c>
@@ -2589,28 +2589,28 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
         <f>'Raw Data'!$G$9</f>
         <v>Labour</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f>'Raw Data'!$H$9</f>
         <v>Invoice</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>'Raw Data'!$V$9</f>
         <v>3502</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <f>'Raw Data'!$C$9</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <f>'Raw Data'!$K$9</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f>'Raw Data'!$L$9</f>
         <v>2</v>
       </c>
@@ -2627,28 +2627,28 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
         <f>'Raw Data'!$G$10</f>
         <v>Labour</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f>'Raw Data'!$H$10</f>
         <v>Invoice</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>'Raw Data'!$V$10</f>
         <v>3503</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <f>'Raw Data'!$C$10</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="1" t="str">
         <f>'Raw Data'!$K$10</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>'Raw Data'!$L$10</f>
         <v>2</v>
       </c>
@@ -2665,28 +2665,28 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
         <f>'Raw Data'!$G$11</f>
         <v>Labour</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f>'Raw Data'!$H$11</f>
         <v>Invoice</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>'Raw Data'!$V$11</f>
         <v>3505</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <f>'Raw Data'!$C$11</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="1" t="str">
         <f>'Raw Data'!$K$11</f>
         <v>Test 1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f>'Raw Data'!$L$11</f>
         <v>4.43</v>
       </c>
@@ -2703,11 +2703,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>SUBTOTAL(9,F13:F16)</f>
         <v>10.43</v>
       </c>
@@ -2724,28 +2724,28 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="18" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
         <f>'Raw Data'!$G$12</f>
         <v>Wagon</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f>'Raw Data'!$H$12</f>
         <v>Sales Order</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <f>'Raw Data'!$V$12</f>
         <v>3476</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="1" t="str">
         <f>'Raw Data'!$C$12</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="1" t="str">
         <f>'Raw Data'!$K$12</f>
         <v>ABC</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f>'Raw Data'!$L$12</f>
         <v>1</v>
       </c>
@@ -2762,28 +2762,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="19" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
         <f>'Raw Data'!$G$13</f>
         <v>Wagon</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <f>'Raw Data'!$H$13</f>
         <v>Sales Order</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f>'Raw Data'!$V$13</f>
         <v>3478</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <f>'Raw Data'!$C$13</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <f>'Raw Data'!$K$13</f>
         <v>ABC</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>'Raw Data'!$L$13</f>
         <v>1</v>
       </c>
@@ -2800,28 +2800,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
         <f>'Raw Data'!$G$14</f>
         <v>Wagon</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <f>'Raw Data'!$H$14</f>
         <v>Sales Order</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f>'Raw Data'!$V$14</f>
         <v>3480</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="1" t="str">
         <f>'Raw Data'!$C$14</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="1" t="str">
         <f>'Raw Data'!$K$14</f>
         <v>ABC</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f>'Raw Data'!$L$14</f>
         <v>1</v>
       </c>
@@ -2838,28 +2838,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="21" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
         <f>'Raw Data'!$G$15</f>
         <v>Wagon</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <f>'Raw Data'!$H$15</f>
         <v>Sales Order</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f>'Raw Data'!$V$15</f>
         <v>3482</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <f>'Raw Data'!$C$15</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="1" t="str">
         <f>'Raw Data'!$K$15</f>
         <v>ABC</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>'Raw Data'!$L$15</f>
         <v>1</v>
       </c>
@@ -2876,28 +2876,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="22" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
         <f>'Raw Data'!$G$16</f>
         <v>Wagon</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <f>'Raw Data'!$H$16</f>
         <v>Sales Order</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f>'Raw Data'!$V$16</f>
         <v>3484</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="1" t="str">
         <f>'Raw Data'!$C$16</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <f>'Raw Data'!$K$16</f>
         <v>ABC</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f>'Raw Data'!$L$16</f>
         <v>1</v>
       </c>
@@ -2914,28 +2914,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="23" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
         <f>'Raw Data'!$G$17</f>
         <v>Wagon</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <f>'Raw Data'!$H$17</f>
         <v>Sales Order</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f>'Raw Data'!$V$17</f>
         <v>3486</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="1" t="str">
         <f>'Raw Data'!$C$17</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="1" t="str">
         <f>'Raw Data'!$K$17</f>
         <v>ABC</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f>'Raw Data'!$L$17</f>
         <v>1</v>
       </c>
@@ -2952,28 +2952,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="24" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
         <f>'Raw Data'!$G$18</f>
         <v>Wagon</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <f>'Raw Data'!$H$18</f>
         <v>Sales Order</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f>'Raw Data'!$V$18</f>
         <v>3488</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <f>'Raw Data'!$C$18</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="1" t="str">
         <f>'Raw Data'!$K$18</f>
         <v>ABC</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f>'Raw Data'!$L$18</f>
         <v>1</v>
       </c>
@@ -2990,28 +2990,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="25" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
         <f>'Raw Data'!$G$19</f>
         <v>Wagon</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <f>'Raw Data'!$H$19</f>
         <v>Sales Order</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f>'Raw Data'!$V$19</f>
         <v>3490</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="1" t="str">
         <f>'Raw Data'!$C$19</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="1" t="str">
         <f>'Raw Data'!$K$19</f>
         <v>ABC</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f>'Raw Data'!$L$19</f>
         <v>1</v>
       </c>
@@ -3028,28 +3028,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="26" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
         <f>'Raw Data'!$G$20</f>
         <v>Wagon</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <f>'Raw Data'!$H$20</f>
         <v>Sales Order</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f>'Raw Data'!$V$20</f>
         <v>3492</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="1" t="str">
         <f>'Raw Data'!$C$20</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="1" t="str">
         <f>'Raw Data'!$K$20</f>
         <v>ABC</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f>'Raw Data'!$L$20</f>
         <v>1</v>
       </c>
@@ -3066,28 +3066,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="27" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
         <f>'Raw Data'!$G$21</f>
         <v>Wagon</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <f>'Raw Data'!$H$21</f>
         <v>Sales Order</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <f>'Raw Data'!$V$21</f>
         <v>3494</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="1" t="str">
         <f>'Raw Data'!$C$21</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="1" t="str">
         <f>'Raw Data'!$K$21</f>
         <v>ABC</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <f>'Raw Data'!$L$21</f>
         <v>1</v>
       </c>
@@ -3104,28 +3104,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="28" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
         <f>'Raw Data'!$G$22</f>
         <v>Wagon</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <f>'Raw Data'!$H$22</f>
         <v>Sales Order</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <f>'Raw Data'!$V$22</f>
         <v>3496</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="1" t="str">
         <f>'Raw Data'!$C$22</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="1" t="str">
         <f>'Raw Data'!$K$22</f>
         <v>ABC</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f>'Raw Data'!$L$22</f>
         <v>1</v>
       </c>
@@ -3142,28 +3142,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="29" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
         <f>'Raw Data'!$G$23</f>
         <v>Wagon</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <f>'Raw Data'!$H$23</f>
         <v>Sales Order</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <f>'Raw Data'!$V$23</f>
         <v>3498</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="1" t="str">
         <f>'Raw Data'!$C$23</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="1" t="str">
         <f>'Raw Data'!$K$23</f>
         <v>ABC</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <f>'Raw Data'!$L$23</f>
         <v>1</v>
       </c>
@@ -3180,28 +3180,28 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="30" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
         <f>'Raw Data'!$G$24</f>
         <v>Wagon</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <f>'Raw Data'!$H$24</f>
         <v>Sales Order</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <f>'Raw Data'!$V$24</f>
         <v>3500</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="1" t="str">
         <f>'Raw Data'!$C$24</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="1" t="str">
         <f>'Raw Data'!$K$24</f>
         <v>ABC</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <f>'Raw Data'!$L$24</f>
         <v>1</v>
       </c>
@@ -3218,11 +3218,11 @@
         <v>2862.12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f>SUBTOTAL(9,F18:F30)</f>
         <v>13</v>
       </c>
@@ -3239,11 +3239,11 @@
         <v>37207.56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f>SUBTOTAL(9,F2:F30)</f>
         <v>29.43</v>
       </c>
@@ -3270,7 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768D2A9-12CD-4012-AAAF-26AC56E5EDAA}">
   <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
